--- a/tirages.xlsx
+++ b/tirages.xlsx
@@ -82,34 +82,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>43741.0</v>
+        <v>43742.0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="2">
-        <v>43741.0</v>
+        <v>43742.0</v>
       </c>
       <c r="B3" t="n">
-        <v>61.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="2">
-        <v>43741.0</v>
+        <v>43742.0</v>
       </c>
       <c r="B4" t="n">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="2">
-        <v>43741.0</v>
+        <v>43742.0</v>
       </c>
       <c r="B5" t="n">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>
